--- a/uploads/data2.xlsx
+++ b/uploads/data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8132E60-ED31-4B69-AF28-19DD952E6119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9661D0-C8EB-451C-A570-7BEC882B1929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>_id</t>
   </si>
@@ -561,8 +561,8 @@
       <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
+      <c r="E3" s="3">
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>19</v>
